--- a/biology/Médecine/Muscle_frontal/Muscle_frontal.xlsx
+++ b/biology/Médecine/Muscle_frontal/Muscle_frontal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle frontal est un muscle qui recouvre le front. Certaines sources le considère comme un muscle distinct, mais il est souvent considéré, avec le muscle occipital, comme un des ventres du muscle occipito-frontal [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle frontal est un muscle qui recouvre le front. Certaines sources le considère comme un muscle distinct, mais il est souvent considéré, avec le muscle occipital, comme un des ventres du muscle occipito-frontal .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle frontal est mince, de forme quadrilatérale et intimement adhérent au fascia superficiel. Il est plus large que le muscle occipital et ses fibres sont plus longues et de couleur plus claire.
 Le muscle n'a pas d'attaches osseuses.
@@ -548,7 +562,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle frontal est innervé par le nerf facial.
 </t>
@@ -579,7 +595,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle frontal est vascularisé par les artères supra-orbitaire et supra-trochléaire.
 </t>
@@ -610,7 +628,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'homme, le muscle frontal n'intervient que dans l'expression faciale.
 Sa fonction première est de les relever les sourcils.
